--- a/POLBNC_compare.xlsx
+++ b/POLBNC_compare.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>POLID</t>
   </si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>45→12</t>
-  </si>
-  <si>
-    <t>AN</t>
   </si>
   <si>
     <t>QU</t>
@@ -415,74 +415,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>123459</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>123459</v>
+        <v>123458</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>123458</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
